--- a/Demoproject/src/test/resources/LoginData.xlsx
+++ b/Demoproject/src/test/resources/LoginData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BE08D6A4-91F4-4BB7-AC06-FD60BA7E4EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CC20CB94-BED7-40A2-9CA5-5B536A8D9E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,7 +373,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
